--- a/OldMutual/Excel Template/StatementSummary.xlsx
+++ b/OldMutual/Excel Template/StatementSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Excel Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F244CEE2-9D1E-408B-8555-047ADF7558E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CFD0F6-FD60-480F-B572-0190CA884CA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{574CCD08-F5A6-4833-9F7A-D19EC403FB22}"/>
   </bookViews>
@@ -213,7 +213,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,10 +255,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,8 +267,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,9 +583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A2FFFF-75C1-4F63-ABA8-C986A7F430B1}">
-  <dimension ref="A1"/>
+  <dimension ref="E11:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -582,7 +597,93 @@
     <col min="7" max="7" width="15.109375" customWidth="1"/>
     <col min="8" max="8" width="68.21875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/OldMutual/Excel Template/StatementSummary.xlsx
+++ b/OldMutual/Excel Template/StatementSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Excel Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CFD0F6-FD60-480F-B572-0190CA884CA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB54DB8F-62DC-44FF-924E-5F0D31EF44CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{574CCD08-F5A6-4833-9F7A-D19EC403FB22}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="Declines - Miscellaneous" sheetId="4" r:id="rId4"/>
     <sheet name="Untraced Bills" sheetId="3" r:id="rId5"/>
     <sheet name="Benefits OM" sheetId="2" r:id="rId6"/>
+    <sheet name="SUDAN MEMBERS" sheetId="8" r:id="rId7"/>
+    <sheet name="RWANDA MEMBERS" sheetId="9" r:id="rId8"/>
+    <sheet name="UGANDA MEMBERS" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="59">
   <si>
     <t>Group</t>
   </si>
@@ -246,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -254,12 +257,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,7 +350,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -583,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A2FFFF-75C1-4F63-ABA8-C986A7F430B1}">
-  <dimension ref="E11:G27"/>
+  <dimension ref="D8:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,93 +690,143 @@
     <col min="8" max="8" width="68.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+    <row r="8" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="6"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="6"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="6"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="6"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="6"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="6"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="6"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D18" s="6"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D19" s="6"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D20" s="6"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D21" s="6"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D22" s="6"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="6"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D24" s="6"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D25" s="6"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D26" s="6"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1545,4 +1687,271 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5BFAC9-9B86-4BA0-B359-A3842D09A880}">
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3297E6-2DCF-45BD-BE76-5C767D3F47F2}">
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C6A302-DBED-482C-8486-09CC8329E2B5}">
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OldMutual/Excel Template/StatementSummary.xlsx
+++ b/OldMutual/Excel Template/StatementSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Excel Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB54DB8F-62DC-44FF-924E-5F0D31EF44CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C491D271-9769-4BA0-B647-02A54A1F11BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{574CCD08-F5A6-4833-9F7A-D19EC403FB22}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <cols>
     <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.109375" customWidth="1"/>
     <col min="8" max="8" width="68.21875" customWidth="1"/>
   </cols>
